--- a/assets/excel/Book1.xlsx
+++ b/assets/excel/Book1.xlsx
@@ -27,31 +27,31 @@
     <t xml:space="preserve">Head  </t>
   </si>
   <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Eve</t>
-  </si>
-  <si>
-    <t>Mallory</t>
-  </si>
-  <si>
-    <t>Trudy</t>
+    <t>Mike Smith (CEO)</t>
+  </si>
+  <si>
+    <t>Jim Carrey (Sales Lead)</t>
+  </si>
+  <si>
+    <t>Bob Marley (Sales)</t>
+  </si>
+  <si>
+    <t>Carol (Sales)</t>
+  </si>
+  <si>
+    <t>Alice May (Accounting Head)</t>
+  </si>
+  <si>
+    <t>David Cook (Accounting)</t>
+  </si>
+  <si>
+    <t>Evelyn Miller (Accounting)</t>
+  </si>
+  <si>
+    <t>Mallory Crews (Intern)</t>
+  </si>
+  <si>
+    <t>Trudy Coghlier (Intern)</t>
   </si>
 </sst>
 </file>
@@ -405,12 +405,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,7 +437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
